--- a/team_specific_matrix/Creighton_A.xlsx
+++ b/team_specific_matrix/Creighton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1635220125786163</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="C2">
-        <v>0.6037735849056604</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006289308176100629</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1320754716981132</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09433962264150944</v>
+        <v>0.0970873786407767</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.79</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.16</v>
+        <v>0.1451612903225807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8888888888888888</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1111111111111111</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0303030303030303</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2606060606060606</v>
+        <v>0.2358974358974359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1696969696969697</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="R6">
-        <v>0.1090909090909091</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="S6">
-        <v>0.3454545454545455</v>
+        <v>0.3179487179487179</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08235294117647059</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02352941176470588</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03529411764705882</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09411764705882353</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.09411764705882353</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
-        <v>0.4705882352941176</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06733167082294264</v>
+        <v>0.06986027944111776</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0199501246882793</v>
+        <v>0.01996007984031936</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0798004987531172</v>
+        <v>0.06786427145708583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09725685785536159</v>
+        <v>0.09181636726546906</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01246882793017456</v>
+        <v>0.009980039920159681</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2019950124688279</v>
+        <v>0.2055888223552894</v>
       </c>
       <c r="R8">
-        <v>0.1122194513715711</v>
+        <v>0.1277445109780439</v>
       </c>
       <c r="S8">
-        <v>0.4089775561097257</v>
+        <v>0.407185628742515</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03968253968253968</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01587301587301587</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1111111111111111</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.253968253968254</v>
+        <v>0.2482758620689655</v>
       </c>
       <c r="R9">
-        <v>0.1507936507936508</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="S9">
-        <v>0.3174603174603174</v>
+        <v>0.3241379310344827</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09090909090909091</v>
+        <v>0.09515260323159784</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01363636363636364</v>
+        <v>0.01615798922800718</v>
       </c>
       <c r="E10">
-        <v>0.003409090909090909</v>
+        <v>0.003590664272890485</v>
       </c>
       <c r="F10">
-        <v>0.0625</v>
+        <v>0.06283662477558348</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07954545454545454</v>
+        <v>0.09605026929982047</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.025</v>
+        <v>0.01974865350089767</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2272727272727273</v>
+        <v>0.2190305206463196</v>
       </c>
       <c r="R10">
-        <v>0.1204545454545455</v>
+        <v>0.1292639138240574</v>
       </c>
       <c r="S10">
-        <v>0.3772727272727273</v>
+        <v>0.3581687612208259</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0782608695652174</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K11">
-        <v>0.1478260869565217</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L11">
-        <v>0.6869565217391305</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7710843373493976</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.144578313253012</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06024096385542169</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02409638554216868</v>
+        <v>0.0202020202020202</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6842105263157895</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04511278195488722</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1879699248120301</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="I15">
-        <v>0.06015037593984962</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="J15">
-        <v>0.3834586466165413</v>
+        <v>0.3821656050955414</v>
       </c>
       <c r="K15">
-        <v>0.02255639097744361</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007518796992481203</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04511278195488722</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2481203007518797</v>
+        <v>0.2292993630573248</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04132231404958678</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2809917355371901</v>
+        <v>0.2625</v>
       </c>
       <c r="I16">
-        <v>0.05785123966942149</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
-        <v>0.3884297520661157</v>
+        <v>0.3875</v>
       </c>
       <c r="K16">
-        <v>0.04958677685950413</v>
+        <v>0.05625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008264462809917356</v>
+        <v>0.0125</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05785123966942149</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.115702479338843</v>
+        <v>0.13125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01123595505617977</v>
+        <v>0.01146788990825688</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2219101123595505</v>
+        <v>0.2362385321100917</v>
       </c>
       <c r="I17">
-        <v>0.07865168539325842</v>
+        <v>0.07110091743119266</v>
       </c>
       <c r="J17">
-        <v>0.5056179775280899</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.04775280898876404</v>
+        <v>0.0389908256880734</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01123595505617977</v>
+        <v>0.01605504587155963</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02808988764044944</v>
+        <v>0.02981651376146789</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09550561797752809</v>
+        <v>0.0963302752293578</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02551020408163265</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2551020408163265</v>
+        <v>0.250965250965251</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="J18">
-        <v>0.4387755102040816</v>
+        <v>0.4633204633204633</v>
       </c>
       <c r="K18">
-        <v>0.03571428571428571</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="O18">
-        <v>0.04081632653061224</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1326530612244898</v>
+        <v>0.1235521235521236</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01371428571428571</v>
+        <v>0.0113421550094518</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2445714285714286</v>
+        <v>0.2448015122873346</v>
       </c>
       <c r="I19">
-        <v>0.07885714285714286</v>
+        <v>0.07655954631379962</v>
       </c>
       <c r="J19">
-        <v>0.3714285714285714</v>
+        <v>0.3799621928166352</v>
       </c>
       <c r="K19">
-        <v>0.07428571428571429</v>
+        <v>0.07183364839319471</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01942857142857143</v>
+        <v>0.01890359168241966</v>
       </c>
       <c r="N19">
-        <v>0.001142857142857143</v>
+        <v>0.000945179584120983</v>
       </c>
       <c r="O19">
-        <v>0.07314285714285715</v>
+        <v>0.06994328922495274</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1234285714285714</v>
+        <v>0.1257088846880907</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Creighton_A.xlsx
+++ b/team_specific_matrix/Creighton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1699029126213592</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="C2">
-        <v>0.5825242718446602</v>
+        <v>0.5874439461883408</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009708737864077669</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407766990291262</v>
+        <v>0.1434977578475336</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0970873786407767</v>
+        <v>0.08968609865470852</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01612903225806452</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8064516129032258</v>
+        <v>0.8161764705882353</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1451612903225807</v>
+        <v>0.1397058823529412</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02564102564102564</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8461538461538461</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1282051282051282</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07179487179487179</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03076923076923077</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04102564102564103</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2358974358974359</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1846153846153846</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R6">
-        <v>0.1179487179487179</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="S6">
-        <v>0.3179487179487179</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01904761904761905</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05714285714285714</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09523809523809523</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009523809523809525</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1904761904761905</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R7">
-        <v>0.08571428571428572</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.4761904761904762</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06986027944111776</v>
+        <v>0.06643356643356643</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01996007984031936</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06786427145708583</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09181636726546906</v>
+        <v>0.0944055944055944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009980039920159681</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2055888223552894</v>
+        <v>0.201048951048951</v>
       </c>
       <c r="R8">
-        <v>0.1277445109780439</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="S8">
-        <v>0.407185628742515</v>
+        <v>0.4073426573426573</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03448275862068965</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02068965517241379</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09655172413793103</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1241379310344828</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2482758620689655</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="R9">
-        <v>0.1517241379310345</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="S9">
-        <v>0.3241379310344827</v>
+        <v>0.3354430379746836</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09515260323159784</v>
+        <v>0.09289176090468497</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01615798922800718</v>
+        <v>0.01777059773828756</v>
       </c>
       <c r="E10">
-        <v>0.003590664272890485</v>
+        <v>0.003231017770597738</v>
       </c>
       <c r="F10">
-        <v>0.06283662477558348</v>
+        <v>0.0630048465266559</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09605026929982047</v>
+        <v>0.09773828756058159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01974865350089767</v>
+        <v>0.01857835218093699</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2190305206463196</v>
+        <v>0.2189014539579968</v>
       </c>
       <c r="R10">
-        <v>0.1292639138240574</v>
+        <v>0.1268174474959612</v>
       </c>
       <c r="S10">
-        <v>0.3581687612208259</v>
+        <v>0.3610662358642973</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.07352941176470588</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08823529411764706</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="K11">
-        <v>0.1470588235294118</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="L11">
-        <v>0.6911764705882353</v>
+        <v>0.6645569620253164</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7878787878787878</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1313131313131313</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06060606060606061</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0202020202020202</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3703703703703703</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03821656050955414</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2101910828025478</v>
+        <v>0.2090395480225989</v>
       </c>
       <c r="I15">
-        <v>0.06369426751592357</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="J15">
-        <v>0.3821656050955414</v>
+        <v>0.3785310734463277</v>
       </c>
       <c r="K15">
-        <v>0.03184713375796178</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006369426751592357</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03821656050955414</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2292993630573248</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03125</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2625</v>
+        <v>0.2598870056497175</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="J16">
-        <v>0.3875</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="K16">
-        <v>0.05625</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0125</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06875000000000001</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.13125</v>
+        <v>0.1299435028248588</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01146788990825688</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2362385321100917</v>
+        <v>0.2443531827515401</v>
       </c>
       <c r="I17">
-        <v>0.07110091743119266</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="K17">
-        <v>0.0389908256880734</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01605504587155963</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02981651376146789</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0963302752293578</v>
+        <v>0.1006160164271047</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0193050193050193</v>
+        <v>0.01718213058419244</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.250965250965251</v>
+        <v>0.2508591065292096</v>
       </c>
       <c r="I18">
-        <v>0.05791505791505792</v>
+        <v>0.05498281786941581</v>
       </c>
       <c r="J18">
-        <v>0.4633204633204633</v>
+        <v>0.4707903780068728</v>
       </c>
       <c r="K18">
-        <v>0.03861003861003861</v>
+        <v>0.04810996563573883</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.003861003861003861</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="N18">
-        <v>0.003861003861003861</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="O18">
-        <v>0.03861003861003861</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1235521235521236</v>
+        <v>0.1099656357388316</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0113421550094518</v>
+        <v>0.01177460050462574</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2448015122873346</v>
+        <v>0.2514718250630782</v>
       </c>
       <c r="I19">
-        <v>0.07655954631379962</v>
+        <v>0.07232968881412952</v>
       </c>
       <c r="J19">
-        <v>0.3799621928166352</v>
+        <v>0.3776282590412111</v>
       </c>
       <c r="K19">
-        <v>0.07183364839319471</v>
+        <v>0.07064760302775441</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01890359168241966</v>
+        <v>0.01682085786375105</v>
       </c>
       <c r="N19">
-        <v>0.000945179584120983</v>
+        <v>0.0008410428931875525</v>
       </c>
       <c r="O19">
-        <v>0.06994328922495274</v>
+        <v>0.06980656013456686</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1257088846880907</v>
+        <v>0.1286795626576955</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Creighton_A.xlsx
+++ b/team_specific_matrix/Creighton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1704035874439462</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="C2">
-        <v>0.5874439461883408</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008968609865470852</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1434977578475336</v>
+        <v>0.1434782608695652</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08968609865470852</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C3">
-        <v>0.02941176470588235</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01470588235294118</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8161764705882353</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1397058823529412</v>
+        <v>0.1347517730496454</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06944444444444445</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03240740740740741</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2314814814814815</v>
+        <v>0.2376681614349776</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1944444444444444</v>
+        <v>0.1883408071748879</v>
       </c>
       <c r="R6">
-        <v>0.1157407407407407</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="S6">
-        <v>0.3148148148148148</v>
+        <v>0.3139013452914798</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06666666666666667</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05833333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09166666666666666</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008333333333333333</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1833333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.475</v>
+        <v>0.4682539682539683</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06643356643356643</v>
+        <v>0.06587837837837837</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.01858108108108108</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06993006993006994</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0944055944055944</v>
+        <v>0.0929054054054054</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008741258741258742</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.201048951048951</v>
+        <v>0.1993243243243243</v>
       </c>
       <c r="R8">
-        <v>0.1328671328671329</v>
+        <v>0.1402027027027027</v>
       </c>
       <c r="S8">
-        <v>0.4073426573426573</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0379746835443038</v>
+        <v>0.0375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0189873417721519</v>
+        <v>0.01875</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08860759493670886</v>
+        <v>0.09375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1139240506329114</v>
+        <v>0.1125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2531645569620253</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>0.1518987341772152</v>
+        <v>0.15</v>
       </c>
       <c r="S9">
-        <v>0.3354430379746836</v>
+        <v>0.3375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09289176090468497</v>
+        <v>0.09119010819165378</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01777059773828756</v>
+        <v>0.0170015455950541</v>
       </c>
       <c r="E10">
-        <v>0.003231017770597738</v>
+        <v>0.003091190108191654</v>
       </c>
       <c r="F10">
-        <v>0.0630048465266559</v>
+        <v>0.06182380216383308</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09773828756058159</v>
+        <v>0.1027820710973725</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01857835218093699</v>
+        <v>0.01777434312210201</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2189014539579968</v>
+        <v>0.2194744976816074</v>
       </c>
       <c r="R10">
-        <v>0.1268174474959612</v>
+        <v>0.1244204018547141</v>
       </c>
       <c r="S10">
-        <v>0.3610662358642973</v>
+        <v>0.3624420401854714</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.08860759493670886</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08860759493670886</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="K11">
-        <v>0.1582278481012658</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="L11">
-        <v>0.6645569620253164</v>
+        <v>0.6526946107784432</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1272727272727273</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03389830508474576</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2090395480225989</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I15">
-        <v>0.06779661016949153</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="J15">
-        <v>0.3785310734463277</v>
+        <v>0.3804347826086957</v>
       </c>
       <c r="K15">
-        <v>0.03389830508474576</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01129943502824859</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04519774011299435</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2203389830508475</v>
+        <v>0.2119565217391304</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02824858757062147</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2598870056497175</v>
+        <v>0.2541436464088398</v>
       </c>
       <c r="I16">
-        <v>0.04519774011299435</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="J16">
-        <v>0.384180790960452</v>
+        <v>0.3922651933701657</v>
       </c>
       <c r="K16">
-        <v>0.06779661016949153</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01129943502824859</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07344632768361582</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1299435028248588</v>
+        <v>0.1270718232044199</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01026694045174538</v>
+        <v>0.01188118811881188</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2443531827515401</v>
+        <v>0.2455445544554455</v>
       </c>
       <c r="I17">
-        <v>0.07392197125256673</v>
+        <v>0.07326732673267326</v>
       </c>
       <c r="J17">
-        <v>0.484599589322382</v>
+        <v>0.4792079207920792</v>
       </c>
       <c r="K17">
-        <v>0.03696098562628337</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01848049281314168</v>
+        <v>0.01782178217821782</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03080082135523614</v>
+        <v>0.03168316831683168</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1006160164271047</v>
+        <v>0.100990099009901</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01718213058419244</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2508591065292096</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="I18">
-        <v>0.05498281786941581</v>
+        <v>0.05245901639344262</v>
       </c>
       <c r="J18">
-        <v>0.4707903780068728</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="K18">
-        <v>0.04810996563573883</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.003436426116838488</v>
+        <v>0.003278688524590164</v>
       </c>
       <c r="N18">
-        <v>0.003436426116838488</v>
+        <v>0.003278688524590164</v>
       </c>
       <c r="O18">
-        <v>0.04123711340206185</v>
+        <v>0.04262295081967213</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1099656357388316</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01177460050462574</v>
+        <v>0.01212611156022635</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2514718250630782</v>
+        <v>0.2506063055780113</v>
       </c>
       <c r="I19">
-        <v>0.07232968881412952</v>
+        <v>0.06952303961196443</v>
       </c>
       <c r="J19">
-        <v>0.3776282590412111</v>
+        <v>0.3783346806790622</v>
       </c>
       <c r="K19">
-        <v>0.07064760302775441</v>
+        <v>0.07033144704931285</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01682085786375105</v>
+        <v>0.0169765561843169</v>
       </c>
       <c r="N19">
-        <v>0.0008410428931875525</v>
+        <v>0.0008084074373484236</v>
       </c>
       <c r="O19">
-        <v>0.06980656013456686</v>
+        <v>0.07033144704931285</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1286795626576955</v>
+        <v>0.1309620048504446</v>
       </c>
     </row>
   </sheetData>
